--- a/server/src/main/resources/excel/template.xlsx
+++ b/server/src/main/resources/excel/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexeykosov/kp/server/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733AAEAB-2502-D148-9CA2-11C620E5C1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F7F74-D10C-2E46-BA43-2988C2572C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20180" xr2:uid="{0433870D-6DD2-4855-B3B8-3C47F87C1BA7}"/>
   </bookViews>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -213,9 +213,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -223,25 +220,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -250,6 +238,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,85 +654,85 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="6" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -737,107 +744,107 @@
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="17">
         <v>152</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="19">
         <v>50</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="20">
         <v>815</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/server/src/main/resources/excel/template.xlsx
+++ b/server/src/main/resources/excel/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexeykosov/kp/server/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158F7F74-D10C-2E46-BA43-2988C2572C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2A7148-38C6-5945-A976-47A02083A70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20180" xr2:uid="{0433870D-6DD2-4855-B3B8-3C47F87C1BA7}"/>
   </bookViews>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                            Итого:</t>
   </si>
   <si>
     <t>Юр. адрес: 644112, Омск, пр-кт Комарова, дом 13 Б, офис 4 | Почтовый адрес: 644112, Омск, пр-кт Комарова, дом 13 Б, офис 4 | ИНН/КПП: 5503247613 / 5507010011 | ОГРН: 1145543002120 | р/с: 40702810923050008003 ФИЛИАЛ "НОВОСИБИРСКИЙ" АО "АЛЬФА-БАНК" |к/с: 30101810600000000774 | БИК 045004774</t>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>$SUMMA$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                        Итого:</t>
   </si>
 </sst>
 </file>
@@ -226,10 +226,29 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -238,25 +257,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,7 +654,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -669,70 +669,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -755,96 +755,96 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="A10" s="11">
         <v>152</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="13">
         <v>50</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="14">
         <v>815</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/server/src/main/resources/excel/template.xlsx
+++ b/server/src/main/resources/excel/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexeykosov/kp/server/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2A7148-38C6-5945-A976-47A02083A70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D828DD1-DE3D-B448-8A30-92488386A1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20180" xr2:uid="{0433870D-6DD2-4855-B3B8-3C47F87C1BA7}"/>
   </bookViews>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>Кол-во</t>
-  </si>
-  <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t>Стоимость</t>
   </si>
   <si>
     <t>кг</t>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                        Итого:</t>
+  </si>
+  <si>
+    <t>Цена с НДС</t>
+  </si>
+  <si>
+    <t>Стоимость с НДС</t>
   </si>
 </sst>
 </file>
@@ -151,18 +151,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -238,9 +232,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -257,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,7 +648,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -669,70 +663,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -748,10 +742,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -759,92 +753,92 @@
         <v>152</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="13">
         <v>50</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="21">
         <v>815</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
-      <c r="B11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="15" t="s">
-        <v>11</v>
+      <c r="B11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
